--- a/BackTest/2019-10-26 BackTest ETC.xlsx
+++ b/BackTest/2019-10-26 BackTest ETC.xlsx
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
@@ -19596,61 +19596,55 @@
         <v>5267</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>5275</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
+      <c r="L549" t="inlineStr"/>
+      <c r="M549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C550" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D550" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E550" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F550" t="n">
+        <v>622.0722</v>
+      </c>
+      <c r="G550" t="n">
+        <v>5266</v>
+      </c>
+      <c r="H550" t="n">
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0</v>
+      </c>
+      <c r="J550" t="n">
+        <v>5280</v>
+      </c>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M549" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>5255</v>
-      </c>
-      <c r="C550" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D550" t="n">
-        <v>5255</v>
-      </c>
-      <c r="E550" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F550" t="n">
-        <v>622.0722</v>
-      </c>
-      <c r="G550" t="n">
-        <v>5266</v>
-      </c>
-      <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>0</v>
-      </c>
-      <c r="J550" t="n">
-        <v>5255</v>
-      </c>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19684,7 +19678,7 @@
         <v>0</v>
       </c>
       <c r="J551" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
@@ -19725,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="J552" t="n">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
@@ -19766,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="J553" t="n">
-        <v>5240</v>
+        <v>5250</v>
       </c>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
@@ -19807,7 +19801,7 @@
         <v>0</v>
       </c>
       <c r="J554" t="n">
-        <v>5205</v>
+        <v>5195</v>
       </c>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
@@ -19848,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="J555" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
@@ -19889,7 +19883,7 @@
         <v>0</v>
       </c>
       <c r="J556" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
@@ -19930,7 +19924,7 @@
         <v>0</v>
       </c>
       <c r="J557" t="n">
-        <v>5220</v>
+        <v>5205</v>
       </c>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
@@ -19971,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="J558" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
@@ -20006,14 +20000,12 @@
         <v>5246</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>5290</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
@@ -20047,14 +20039,12 @@
         <v>5254</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>5265</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
@@ -20088,14 +20078,12 @@
         <v>5269</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>5280</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
@@ -20129,14 +20117,12 @@
         <v>5274</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>5280</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr">
         <is>
@@ -20170,14 +20156,12 @@
         <v>5275</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>5285</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
@@ -20211,14 +20195,12 @@
         <v>5275</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="n">
-        <v>5270</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
@@ -20252,14 +20234,12 @@
         <v>5275</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="n">
-        <v>5270</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
@@ -20293,14 +20273,12 @@
         <v>5274</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="n">
-        <v>5280</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
@@ -20334,14 +20312,12 @@
         <v>5272</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>5265</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
@@ -20375,14 +20351,12 @@
         <v>5268</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>5265</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
@@ -20416,14 +20390,12 @@
         <v>5267</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
       </c>
-      <c r="J569" t="n">
-        <v>5265</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
@@ -20457,14 +20429,12 @@
         <v>5264</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
       </c>
-      <c r="J570" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
@@ -20498,14 +20468,12 @@
         <v>5260</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>5255</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
@@ -20539,14 +20507,12 @@
         <v>5256</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>5250</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
@@ -20580,14 +20546,12 @@
         <v>5254</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>5255</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
@@ -20621,14 +20585,12 @@
         <v>5253</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>5260</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
@@ -20662,14 +20624,12 @@
         <v>5261</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>5280</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
@@ -20703,14 +20663,12 @@
         <v>5265</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
       </c>
-      <c r="J576" t="n">
-        <v>5275</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
@@ -20744,14 +20702,12 @@
         <v>5275</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
       </c>
-      <c r="J577" t="n">
-        <v>5300</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
@@ -20785,14 +20741,12 @@
         <v>5287</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
       </c>
-      <c r="J578" t="n">
-        <v>5315</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
@@ -20826,14 +20780,12 @@
         <v>5302</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>5320</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
@@ -20867,14 +20819,12 @@
         <v>5313</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>5340</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
@@ -20908,14 +20858,12 @@
         <v>5324</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>5340</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
@@ -20949,14 +20897,12 @@
         <v>5332</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>5330</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
@@ -20990,14 +20936,12 @@
         <v>5340</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>5360</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
@@ -21031,14 +20975,12 @@
         <v>5342</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>5360</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
@@ -21072,14 +21014,12 @@
         <v>5342</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>5340</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>

--- a/BackTest/2019-10-26 BackTest ETC.xlsx
+++ b/BackTest/2019-10-26 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5237.605217263543</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-6553.506217263543</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-5391.176317263543</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-6911.816117263544</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -683,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -794,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -831,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -868,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -905,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -942,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1016,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1053,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1090,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1275,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1312,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1349,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1423,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1460,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1497,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1534,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1571,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1608,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1645,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1682,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1719,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1756,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1793,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1830,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1867,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1904,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1941,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1978,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2015,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2052,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2089,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2126,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2163,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2237,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2274,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2311,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2422,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2459,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2496,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2644,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2677,16 +2431,14 @@
         <v>3808.759350383518</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
       <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2712,7 +2464,7 @@
         <v>4207.440850383518</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2745,7 +2497,7 @@
         <v>5119.752550383519</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2778,7 +2530,7 @@
         <v>4361.956250383519</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2811,7 +2563,7 @@
         <v>4674.311650383519</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2844,7 +2596,7 @@
         <v>5795.954050383519</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2877,7 +2629,7 @@
         <v>5173.523550383518</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2910,7 +2662,7 @@
         <v>4243.913250383518</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2943,7 +2695,7 @@
         <v>5461.800050383518</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2976,7 +2728,7 @@
         <v>6503.709550383518</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3009,7 +2761,7 @@
         <v>3747.184950383518</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3042,7 +2794,7 @@
         <v>3139.631050383518</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3075,7 +2827,7 @@
         <v>3651.973650383518</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3108,7 +2860,7 @@
         <v>4217.284750383518</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3141,7 +2893,7 @@
         <v>3190.418450383519</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3174,7 +2926,7 @@
         <v>3846.686350383518</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3207,7 +2959,7 @@
         <v>2758.639450383518</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3240,7 +2992,7 @@
         <v>274.8322503835179</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3273,7 +3025,7 @@
         <v>-1001.288749616482</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3306,7 +3058,7 @@
         <v>-994.3987496164822</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3339,7 +3091,7 @@
         <v>-893.0772496164822</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3372,7 +3124,7 @@
         <v>-1396.126349616482</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3405,7 +3157,7 @@
         <v>-1799.911049616482</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3438,7 +3190,7 @@
         <v>-1955.101049616482</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3471,7 +3223,7 @@
         <v>-2392.489349616482</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3504,7 +3256,7 @@
         <v>-4197.219549616482</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3537,7 +3289,7 @@
         <v>-10183.44634961648</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3570,7 +3322,7 @@
         <v>-10810.41264961648</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3603,7 +3355,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3636,7 +3388,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3669,7 +3421,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3702,7 +3454,7 @@
         <v>-9656.370349616484</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3735,7 +3487,7 @@
         <v>-9656.370349616484</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3768,7 +3520,7 @@
         <v>-9256.471249616483</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3801,7 +3553,7 @@
         <v>-9716.471249616483</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3834,7 +3586,7 @@
         <v>-10484.48164961648</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3867,7 +3619,7 @@
         <v>-10514.28264961648</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3900,7 +3652,7 @@
         <v>-10140.93114961648</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3933,7 +3685,7 @@
         <v>-10142.19694961648</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3966,7 +3718,7 @@
         <v>-9942.41554961648</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3999,7 +3751,7 @@
         <v>-9942.41554961648</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4032,7 +3784,7 @@
         <v>-10332.97434961648</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4098,7 +3850,7 @@
         <v>-10566.64234961648</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4131,7 +3883,7 @@
         <v>-10576.64234961648</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4164,7 +3916,7 @@
         <v>-10576.64234961648</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4197,7 +3949,7 @@
         <v>-10067.88854961648</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4230,7 +3982,7 @@
         <v>-10096.87254961648</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -6111,7 +5863,7 @@
         <v>-13800.72404319446</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6144,7 +5896,7 @@
         <v>-13800.72404319446</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -9213,7 +8965,7 @@
         <v>-11976.39944319446</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9246,7 +8998,7 @@
         <v>-12336.24614319446</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9378,7 +9130,7 @@
         <v>-13183.72614319446</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10665,7 +10417,7 @@
         <v>-11795.02454319446</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10830,7 +10582,7 @@
         <v>-11852.78344319446</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10896,7 +10648,7 @@
         <v>-11836.27754319446</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10929,7 +10681,7 @@
         <v>-12118.73344319446</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10995,7 +10747,7 @@
         <v>-10657.19454319446</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11028,7 +10780,7 @@
         <v>-11274.84084319446</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11061,7 +10813,7 @@
         <v>-11090.72134319446</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11094,7 +10846,7 @@
         <v>-12420.85104319446</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11127,7 +10879,7 @@
         <v>-12938.68444319446</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11160,7 +10912,7 @@
         <v>-12368.69004319446</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11193,7 +10945,7 @@
         <v>-11727.48814319446</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11226,7 +10978,7 @@
         <v>-10537.06724319446</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11259,7 +11011,7 @@
         <v>-8559.655543194462</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11292,7 +11044,7 @@
         <v>-10203.68834319446</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11325,7 +11077,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11358,7 +11110,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11391,7 +11143,7 @@
         <v>-12412.09784319446</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11424,7 +11176,7 @@
         <v>-11556.91774319446</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11457,7 +11209,7 @@
         <v>-9740.181143194462</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11490,7 +11242,7 @@
         <v>-10717.16354319446</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11523,7 +11275,7 @@
         <v>-10553.76094319446</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11556,7 +11308,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11589,7 +11341,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11622,7 +11374,7 @@
         <v>-9494.689543194465</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11655,7 +11407,7 @@
         <v>-10479.10964319446</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11688,7 +11440,7 @@
         <v>-10355.83244319446</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11721,7 +11473,7 @@
         <v>-11827.94974319446</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11754,7 +11506,7 @@
         <v>-11818.88164319446</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11787,7 +11539,7 @@
         <v>-11518.08164319446</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11820,7 +11572,7 @@
         <v>-9526.562043194464</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11853,7 +11605,7 @@
         <v>-10021.60564319447</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11886,7 +11638,7 @@
         <v>-10117.00934319447</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11919,7 +11671,7 @@
         <v>-10785.93064319447</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11952,7 +11704,7 @@
         <v>-11080.41774319447</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11985,7 +11737,7 @@
         <v>-11532.71984319447</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12018,7 +11770,7 @@
         <v>-11844.07774319447</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12051,7 +11803,7 @@
         <v>-11322.77664319447</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12084,7 +11836,7 @@
         <v>-11322.77664319447</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12117,7 +11869,7 @@
         <v>-12173.68724319446</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12150,7 +11902,7 @@
         <v>-11089.96214319447</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12183,7 +11935,7 @@
         <v>-10719.67204319447</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12216,7 +11968,7 @@
         <v>-11303.60774319447</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12249,7 +12001,7 @@
         <v>-12188.44484319447</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12282,7 +12034,7 @@
         <v>-12799.37894319447</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12315,7 +12067,7 @@
         <v>-12433.35914319447</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12348,7 +12100,7 @@
         <v>-12125.27894319447</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12381,7 +12133,7 @@
         <v>-11803.78324319447</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12414,7 +12166,7 @@
         <v>-12213.81024319447</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12447,7 +12199,7 @@
         <v>-12518.47284319447</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12480,7 +12232,7 @@
         <v>-12646.12254319447</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12513,7 +12265,7 @@
         <v>-12278.84954319447</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12546,7 +12298,7 @@
         <v>-12354.05664319447</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12579,7 +12331,7 @@
         <v>-12175.05664319447</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12612,7 +12364,7 @@
         <v>-12183.38044319447</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12645,7 +12397,7 @@
         <v>-12075.49624319447</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12678,7 +12430,7 @@
         <v>-12632.97794319447</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12711,7 +12463,7 @@
         <v>-12738.37794319447</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12744,7 +12496,7 @@
         <v>-10699.60484319447</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12777,7 +12529,7 @@
         <v>-10266.37934319447</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12810,7 +12562,7 @@
         <v>-10652.23134319447</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12843,7 +12595,7 @@
         <v>-11445.28014319447</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12876,7 +12628,7 @@
         <v>-11432.20704319447</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12909,7 +12661,7 @@
         <v>-11425.90714863604</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12942,7 +12694,7 @@
         <v>-11537.08944863604</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12975,7 +12727,7 @@
         <v>-11537.08944863604</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13074,7 +12826,7 @@
         <v>-13030.77434863604</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13107,7 +12859,7 @@
         <v>-13339.40315981728</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13140,7 +12892,7 @@
         <v>-14283.49415981728</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13173,7 +12925,7 @@
         <v>-13986.64575981728</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13206,7 +12958,7 @@
         <v>-13986.64575981728</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -16374,7 +16126,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16407,7 +16159,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16440,7 +16192,7 @@
         <v>-24293.60511280558</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16473,7 +16225,7 @@
         <v>-24012.72461280558</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19014,11 +18766,17 @@
         <v>-30037.81469276913</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>5435</v>
+      </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19047,11 +18805,17 @@
         <v>-29939.17869276914</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>5445</v>
+      </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19080,11 +18844,17 @@
         <v>-29967.46459276913</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>5470</v>
+      </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19113,11 +18883,17 @@
         <v>-30072.96459276913</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>5450</v>
+      </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19146,11 +18922,17 @@
         <v>-30072.96459276913</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>5440</v>
+      </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19179,11 +18961,17 @@
         <v>-30053.56229276913</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>5440</v>
+      </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19212,11 +19000,17 @@
         <v>-30051.35549276913</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>5460</v>
+      </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19245,11 +19039,17 @@
         <v>-29946.87959276913</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>5470</v>
+      </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19282,7 +19082,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19315,7 +19119,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19348,7 +19156,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19381,7 +19193,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19414,7 +19230,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19447,7 +19267,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19480,7 +19304,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19513,7 +19341,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19542,11 +19374,17 @@
         <v>-30835.20099276914</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>5400</v>
+      </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19575,11 +19413,17 @@
         <v>-30804.74189276914</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>5420</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19612,7 +19456,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19641,11 +19489,17 @@
         <v>-30357.10969276914</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>5425</v>
+      </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19678,7 +19532,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19711,7 +19569,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19744,7 +19606,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19777,7 +19643,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19810,7 +19680,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19843,7 +19717,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19876,7 +19754,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19909,7 +19791,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19942,7 +19828,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19971,11 +19861,17 @@
         <v>-30547.00549276913</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>5380</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20004,11 +19900,17 @@
         <v>-30547.00549276913</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>5370</v>
+      </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20037,11 +19939,17 @@
         <v>-30660.14439276914</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>5370</v>
+      </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20070,11 +19978,17 @@
         <v>-30842.78529276913</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>5365</v>
+      </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20103,11 +20017,17 @@
         <v>-31577.65849276914</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>5350</v>
+      </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20136,11 +20056,17 @@
         <v>-31298.21559276913</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>5335</v>
+      </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20169,11 +20095,17 @@
         <v>-31412.18149276913</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>5340</v>
+      </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20202,11 +20134,17 @@
         <v>-31315.91879276913</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>5330</v>
+      </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20235,11 +20173,17 @@
         <v>-31425.91879276913</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>5355</v>
+      </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20268,11 +20212,17 @@
         <v>-31975.48539276913</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>5340</v>
+      </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20301,11 +20251,17 @@
         <v>-31671.85709276913</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>5300</v>
+      </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20334,11 +20290,17 @@
         <v>-31670.69629276913</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>5330</v>
+      </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20367,11 +20329,17 @@
         <v>-32360.69629276913</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>5335</v>
+      </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20400,11 +20368,17 @@
         <v>-32254.69629276913</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>5325</v>
+      </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20433,11 +20407,17 @@
         <v>-32267.86649276913</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>5330</v>
+      </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20466,11 +20446,17 @@
         <v>-32495.84669276913</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>5315</v>
+      </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20499,11 +20485,17 @@
         <v>-32786.03669276914</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>5300</v>
+      </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20532,11 +20524,17 @@
         <v>-33082.21559276913</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>5290</v>
+      </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20565,11 +20563,17 @@
         <v>-33113.96319276914</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>5280</v>
+      </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20598,11 +20602,17 @@
         <v>-33113.96319276914</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>5255</v>
+      </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20631,11 +20641,17 @@
         <v>-32891.61949276914</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>5255</v>
+      </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20664,11 +20680,17 @@
         <v>-32730.90779276914</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>5260</v>
+      </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20697,11 +20719,17 @@
         <v>-32830.90779276914</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>5285</v>
+      </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20730,11 +20758,17 @@
         <v>-33452.97999276914</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>5280</v>
+      </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20763,11 +20797,17 @@
         <v>-33491.83219276914</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>5250</v>
+      </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20796,11 +20836,17 @@
         <v>-33322.91549276914</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>5240</v>
+      </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20829,11 +20875,17 @@
         <v>-34529.06299276914</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>5250</v>
+      </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20862,11 +20914,17 @@
         <v>-34521.67109276914</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>5195</v>
+      </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20895,11 +20953,17 @@
         <v>-34416.60489276914</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>5205</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20928,11 +20992,17 @@
         <v>-34552.97389276914</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>5220</v>
+      </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20961,11 +21031,17 @@
         <v>-34479.12149276913</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>5205</v>
+      </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20994,11 +21070,17 @@
         <v>-34363.22849276914</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>5255</v>
+      </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21027,11 +21109,17 @@
         <v>-34511.11409276914</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>5280</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21060,11 +21148,17 @@
         <v>-34842.28339276914</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>5270</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21093,11 +21187,17 @@
         <v>-34831.78339276914</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>5260</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21126,11 +21226,17 @@
         <v>-34831.78339276914</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>5280</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21159,11 +21265,17 @@
         <v>-34830.27969276914</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>5280</v>
+      </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21192,11 +21304,17 @@
         <v>-35135.57879276913</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>5285</v>
+      </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21225,11 +21343,17 @@
         <v>-35423.46639276914</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>5270</v>
+      </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21258,11 +21382,17 @@
         <v>-34796.87109276914</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>5260</v>
+      </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21291,11 +21421,17 @@
         <v>-35203.18359276914</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>5275</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21324,11 +21460,17 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>5270</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21357,11 +21499,17 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>5265</v>
+      </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21390,11 +21538,17 @@
         <v>-35602.87999276914</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>5265</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21423,11 +21577,17 @@
         <v>-35588.89869276914</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>5245</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21456,11 +21616,17 @@
         <v>-35795.42829276914</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>5255</v>
+      </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21489,11 +21655,17 @@
         <v>-35790.12089276914</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>5250</v>
+      </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21522,11 +21694,17 @@
         <v>-35788.71859276914</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>5255</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21555,11 +21733,17 @@
         <v>-35443.25559276914</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>5260</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21588,11 +21772,17 @@
         <v>-35577.66769276914</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>5285</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21621,11 +21811,17 @@
         <v>-35542.56529276913</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>5275</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21654,11 +21850,17 @@
         <v>-35305.38260227055</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>5300</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21687,11 +21889,17 @@
         <v>-35173.80810227054</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>5315</v>
+      </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21720,11 +21928,17 @@
         <v>-35061.46810227055</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>5335</v>
+      </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21753,11 +21967,17 @@
         <v>-35335.78060227055</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>5340</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21790,7 +22010,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21823,7 +22047,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21856,7 +22084,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21889,7 +22121,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21922,7 +22158,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21955,7 +22195,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21988,7 +22232,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22021,7 +22269,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22054,7 +22306,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22087,7 +22343,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22120,7 +22380,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22153,7 +22417,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22186,7 +22454,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22219,7 +22491,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22248,11 +22524,17 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>5360</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22281,11 +22563,17 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>5350</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22314,11 +22602,17 @@
         <v>-34996.77140227056</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>5350</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22347,11 +22641,17 @@
         <v>-35062.59310227056</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>5360</v>
+      </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22380,11 +22680,17 @@
         <v>-35065.59310227056</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>5350</v>
+      </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22413,11 +22719,17 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>5330</v>
+      </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22446,11 +22758,17 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>5335</v>
+      </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22479,11 +22797,17 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>5335</v>
+      </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22512,11 +22836,17 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>5330</v>
+      </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22545,11 +22875,17 @@
         <v>-34966.49010227057</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>5330</v>
+      </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22578,11 +22914,17 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>5365</v>
+      </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22611,11 +22953,17 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>5375</v>
+      </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22644,11 +22992,17 @@
         <v>-35451.03060227057</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>5375</v>
+      </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22677,11 +23031,17 @@
         <v>-35429.03060227057</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>5365</v>
+      </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22710,11 +23070,17 @@
         <v>-35470.16060227057</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>5370</v>
+      </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22743,11 +23109,17 @@
         <v>-35355.44770227057</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>5350</v>
+      </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22776,11 +23148,17 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>5355</v>
+      </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22809,11 +23187,17 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>5335</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22842,11 +23226,17 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>5335</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22875,11 +23265,17 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>5330</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22908,11 +23304,17 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>5330</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22941,17 +23343,23 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>5330</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
       <c r="M676" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ETC.xlsx
+++ b/BackTest/2019-10-26 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-5237.605217263543</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6553.506217263543</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5391.176317263543</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6911.816117263544</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9524.537217263542</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-9449.537217263542</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-7905.484517263541</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4634.752617263541</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2339.391717263541</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-488.9272172635406</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2986.37631726354</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2072.21151726354</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2072.21151726354</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2372.74911726354</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3582.24741726354</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3848.96201726354</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3611.883417263541</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2282.806017263541</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2181.606017263541</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2150.900217263541</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2012.844117263541</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2100.93071726354</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2138.13821726354</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2224.189549616482</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2224.189549616482</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2623.189549616482</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2554.579349616482</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2552.492549616481</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1956.708449616482</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1199.301249616482</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>438.2216503835184</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>26.14365038351843</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>516.4816503835184</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>4839.062650383518</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>3808.759350383518</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>4207.440850383518</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>5119.752550383519</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4361.956250383519</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>4674.311650383519</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>5795.954050383519</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>5173.523550383518</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>4243.913250383518</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5461.800050383518</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3846.686350383518</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2758.639450383518</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>274.8322503835179</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1001.288749616482</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-10484.48164961648</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-10514.28264961648</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-10332.97434961648</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-10566.64234961648</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-10576.64234961648</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-10576.64234961648</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-10067.88854961648</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-10096.87254961648</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-10492.42624319446</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-10274.42884319446</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-10271.50794319446</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-14177.36424319446</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-13845.11484319446</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-13845.11484319446</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-13875.16924319446</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-13703.08464319446</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-13682.79264319446</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-13673.09024319446</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-13677.71154319446</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-13684.96284319446</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-13684.96284319446</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-13698.99984319446</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-13698.78544319446</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-13794.81224319446</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-13794.81224319446</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-13680.71224319446</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-13680.71224319446</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-13605.71224319446</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-13617.01224319446</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-13623.79424319446</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-14268.85384319446</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-14144.19144319446</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-14442.73044319446</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-15066.41584319446</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-14756.21814319446</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-14071.97334319446</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-14512.55174319446</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-14513.55174319446</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-14495.16814319446</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-11910.96444319446</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-12296.12054319446</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-12296.44614319446</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-11976.39944319446</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-11976.39944319446</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-12336.24614319446</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-11422.29154319446</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-3344.384043194464</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-9004.414443194462</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-13183.72614319446</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-14106.04184319446</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-13884.42344319446</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-13853.73144319446</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-13128.57554319446</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-13124.80704319446</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-12537.21504319446</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-11515.91504319446</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-11735.93484319446</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-12094.98584319446</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-11740.16104319446</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-11824.52854319446</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-11621.69294319446</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-10516.13304319446</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-12004.75704319446</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-12293.87334319446</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-12689.49134319446</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-12884.33414319446</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-12249.24744319446</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-12106.39244319446</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-12106.39244319446</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-12118.73344319446</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-10657.19454319446</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-11274.84084319446</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-11090.72134319446</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-12420.85104319446</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-12938.68444319446</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-12368.69004319446</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-11727.48814319446</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-10537.06724319446</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-8559.655543194462</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-10203.68834319446</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-12412.09784319446</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-11556.91774319446</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-9740.181143194462</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-10717.16354319446</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-10553.76094319446</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-9494.689543194465</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-10479.10964319446</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-10355.83244319446</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-11827.94974319446</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-11818.88164319446</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-11518.08164319446</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9526.562043194464</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-10021.60564319447</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-10117.00934319447</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-10785.93064319447</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-11080.41774319447</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-11532.71984319447</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-11844.07774319447</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-11322.77664319447</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-11322.77664319447</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-12173.68724319446</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-11089.96214319447</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-10719.67204319447</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-11303.60774319447</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-12188.44484319447</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-12799.37894319447</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-12433.35914319447</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-12125.27894319447</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-11803.78324319447</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-12213.81024319447</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-12518.47284319447</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-12646.12254319447</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-12278.84954319447</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-12354.05664319447</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-12175.05664319447</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-12183.38044319447</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-12075.49624319447</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-12632.97794319447</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-12738.37794319447</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-10699.60484319447</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-10266.37934319447</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-10652.23134319447</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-11445.28014319447</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-11432.20704319447</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-11425.90714863604</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-11537.08944863604</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-13030.77434863604</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-13339.40315981728</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-14283.49415981728</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-13986.64575981728</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-25733.98733993806</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-25735.52063993806</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-25373.38141915766</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-25956.28921280558</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-25956.28921280558</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-25974.36001280558</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-25969.65071280558</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-25977.52061280558</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-25966.19261280558</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-26003.51381280558</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-25879.88571280558</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-25879.88571280558</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-25877.00971280557</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-23787.11241280557</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-23785.02551280558</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-24603.32461280558</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-24293.60511280558</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-24012.72461280558</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-22920.28731280558</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-22920.28731280558</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-22632.28731280558</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-22632.28731280558</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-22773.94541280558</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-22699.02551280558</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-22893.77791280558</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-22893.77791280558</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-22887.27791280558</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-22750.64161280558</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-22733.85111280558</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-22421.79011280558</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-22787.25921280558</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-22787.25921280558</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-22794.32231280558</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-27038.04051280558</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-28731.38351280558</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-28760.64351280558</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-28760.64351280558</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-29027.44911280558</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-29384.39441280558</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-29384.39441280558</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-29043.95639276915</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-29328.72639276914</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-29542.16919276914</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-30035.78269276914</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18766,17 +18766,11 @@
         <v>-30037.81469276913</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>5435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18805,17 +18799,11 @@
         <v>-29939.17869276914</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>5445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18844,17 +18832,11 @@
         <v>-29967.46459276913</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>5470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18883,17 +18865,11 @@
         <v>-30072.96459276913</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>5450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18922,17 +18898,11 @@
         <v>-30072.96459276913</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>5440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18961,17 +18931,11 @@
         <v>-30053.56229276913</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>5440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19000,17 +18964,11 @@
         <v>-30051.35549276913</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>5460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19039,17 +18997,11 @@
         <v>-29946.87959276913</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>5470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19078,15 +19030,11 @@
         <v>-30323.69679276913</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19115,15 +19063,11 @@
         <v>-30323.69679276913</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19152,15 +19096,11 @@
         <v>-30027.83719276913</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19189,15 +19129,11 @@
         <v>-30042.42429276913</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19230,11 +19166,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19267,11 +19199,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19304,11 +19232,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19341,11 +19265,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19374,17 +19294,11 @@
         <v>-30835.20099276914</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>5400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19413,17 +19327,11 @@
         <v>-30804.74189276914</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>5420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19456,11 +19364,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19489,17 +19393,11 @@
         <v>-30357.10969276914</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>5425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19532,11 +19430,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19569,11 +19463,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19606,11 +19496,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19643,11 +19529,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19680,11 +19562,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19717,11 +19595,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19754,11 +19628,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19791,11 +19661,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19828,11 +19694,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19861,17 +19723,11 @@
         <v>-30547.00549276913</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>5380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19900,17 +19756,11 @@
         <v>-30547.00549276913</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>5370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19939,17 +19789,11 @@
         <v>-30660.14439276914</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>5370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19978,17 +19822,11 @@
         <v>-30842.78529276913</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>5365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20017,17 +19855,11 @@
         <v>-31577.65849276914</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>5350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20056,17 +19888,11 @@
         <v>-31298.21559276913</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>5335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20095,17 +19921,11 @@
         <v>-31412.18149276913</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>5340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20134,17 +19954,11 @@
         <v>-31315.91879276913</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20173,17 +19987,11 @@
         <v>-31425.91879276913</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>5355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20212,17 +20020,11 @@
         <v>-31975.48539276913</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>5340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20251,17 +20053,11 @@
         <v>-31671.85709276913</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>5300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20290,17 +20086,11 @@
         <v>-31670.69629276913</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20329,17 +20119,11 @@
         <v>-32360.69629276913</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>5335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20368,17 +20152,11 @@
         <v>-32254.69629276913</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>5325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20407,17 +20185,11 @@
         <v>-32267.86649276913</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20446,17 +20218,11 @@
         <v>-32495.84669276913</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>5315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20485,17 +20251,11 @@
         <v>-32786.03669276914</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>5300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20524,17 +20284,11 @@
         <v>-33082.21559276913</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>5290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20571,7 +20325,7 @@
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L604" t="n">
@@ -21226,11 +20980,9 @@
         <v>-34831.78339276914</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>5280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21265,11 +21017,9 @@
         <v>-34830.27969276914</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>5280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -21304,11 +21054,9 @@
         <v>-35135.57879276913</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>5285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -21343,11 +21091,9 @@
         <v>-35423.46639276914</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>5270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -21382,11 +21128,9 @@
         <v>-34796.87109276914</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>5260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -21421,11 +21165,9 @@
         <v>-35203.18359276914</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>5275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21460,11 +21202,9 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>5270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21499,11 +21239,9 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>5265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21538,11 +21276,9 @@
         <v>-35602.87999276914</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>5265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21577,11 +21313,9 @@
         <v>-35588.89869276914</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>5245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21616,11 +21350,9 @@
         <v>-35795.42829276914</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>5255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21655,11 +21387,9 @@
         <v>-35790.12089276914</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>5250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21694,11 +21424,9 @@
         <v>-35788.71859276914</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>5255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21733,11 +21461,9 @@
         <v>-35443.25559276914</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>5260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21772,11 +21498,9 @@
         <v>-35577.66769276914</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>5285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -21811,11 +21535,9 @@
         <v>-35542.56529276913</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>5275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -21850,11 +21572,9 @@
         <v>-35305.38260227055</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>5300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -21889,11 +21609,9 @@
         <v>-35173.80810227054</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>5315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -21928,11 +21646,9 @@
         <v>-35061.46810227055</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>5335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -21967,11 +21683,9 @@
         <v>-35335.78060227055</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>5340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -22524,11 +22238,9 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>5360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22563,11 +22275,9 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>5350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -22602,11 +22312,9 @@
         <v>-34996.77140227056</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>5350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22641,11 +22349,9 @@
         <v>-35062.59310227056</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>5360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22680,11 +22386,9 @@
         <v>-35065.59310227056</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>5350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -22719,11 +22423,9 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22758,11 +22460,9 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>5335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22797,11 +22497,9 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>5335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -22836,11 +22534,9 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -22875,11 +22571,9 @@
         <v>-34966.49010227057</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -22914,11 +22608,9 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>5365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -22953,11 +22645,9 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>5375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -22992,11 +22682,9 @@
         <v>-35451.03060227057</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>5375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -23031,11 +22719,9 @@
         <v>-35429.03060227057</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>5365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -23070,11 +22756,9 @@
         <v>-35470.16060227057</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>5370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -23109,11 +22793,9 @@
         <v>-35355.44770227057</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>5350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -23148,11 +22830,9 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>5355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -23187,11 +22867,9 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>5335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -23226,11 +22904,9 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>5335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23265,11 +22941,9 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -23304,11 +22978,9 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -23343,11 +23015,9 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>5330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -23360,6 +23030,6 @@
       <c r="M676" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ETC.xlsx
+++ b/BackTest/2019-10-26 BackTest ETC.xlsx
@@ -451,7 +451,7 @@
         <v>-5237.605217263543</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6553.506217263543</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-5391.176317263543</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-6911.816117263544</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-9524.537217263542</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-9449.537217263542</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-7905.484517263541</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-4634.752617263541</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2339.391717263541</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-488.9272172635406</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2986.37631726354</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2072.21151726354</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2072.21151726354</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2372.74911726354</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3582.24741726354</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3848.96201726354</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3611.883417263541</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2282.806017263541</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2181.606017263541</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2150.900217263541</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2012.844117263541</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2100.93071726354</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2138.13821726354</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2224.189549616482</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2224.189549616482</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2623.189549616482</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2554.579349616482</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2552.492549616481</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1956.708449616482</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1199.301249616482</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>438.2216503835184</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>26.14365038351843</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>516.4816503835184</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>4839.062650383518</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>3808.759350383518</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>4207.440850383518</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>5119.752550383519</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>4361.956250383519</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>4674.311650383519</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>5795.954050383519</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>5173.523550383518</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5461.800050383518</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>6503.709550383518</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>3747.184950383518</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3651.973650383518</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>4217.284750383518</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3846.686350383518</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>274.8322503835179</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-994.3987496164822</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-893.0772496164822</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1396.126349616482</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1799.911049616482</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1955.101049616482</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2392.489349616482</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4197.219549616482</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-10183.44634961648</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-10810.41264961648</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9656.370349616484</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9656.370349616484</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-9256.471249616483</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9716.471249616483</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-10140.93114961648</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-10142.19694961648</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-9942.41554961648</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-9942.41554961648</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-10492.42624319446</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-10274.42884319446</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-10271.50794319446</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-14177.36424319446</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-13845.11484319446</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-13845.11484319446</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-13875.16924319446</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-13703.08464319446</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-13682.79264319446</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-13673.09024319446</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-13677.71154319446</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-13684.96284319446</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-13684.96284319446</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-13698.99984319446</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-13698.78544319446</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-13794.81224319446</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-13794.81224319446</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-13680.71224319446</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-13680.71224319446</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-13605.71224319446</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-13617.01224319446</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-13623.79424319446</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-14268.85384319446</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-14144.19144319446</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-14442.73044319446</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-15066.41584319446</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-14756.21814319446</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-14071.97334319446</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-14512.55174319446</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-14513.55174319446</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-14495.16814319446</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-11910.96444319446</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-12296.12054319446</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-12296.44614319446</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-11976.39944319446</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-11976.39944319446</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-12336.24614319446</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-11422.29154319446</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-3344.384043194464</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-9004.414443194462</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-13183.72614319446</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-14106.04184319446</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-13884.42344319446</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-13853.73144319446</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-13128.57554319446</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-13124.80704319446</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-12537.21504319446</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-11515.91504319446</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-11735.93484319446</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-12094.98584319446</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-11740.16104319446</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-11824.52854319446</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-11621.69294319446</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-10516.13304319446</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-12004.75704319446</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-12293.87334319446</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-12689.49134319446</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-12884.33414319446</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-12249.24744319446</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-12106.39244319446</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-12106.39244319446</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-12938.68444319446</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-8559.655543194462</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-10203.68834319446</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-12412.09784319446</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-11556.91774319446</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-9740.181143194462</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-10717.16354319446</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-10553.76094319446</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-9494.689543194465</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-10479.10964319446</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-10355.83244319446</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-11827.94974319446</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-11818.88164319446</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-11518.08164319446</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9526.562043194464</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-10021.60564319447</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-10117.00934319447</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-10785.93064319447</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-11080.41774319447</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-11532.71984319447</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-11844.07774319447</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-25733.98733993806</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-25735.52063993806</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-25373.38141915766</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-25956.28921280558</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-25956.28921280558</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-25974.36001280558</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-25969.65071280558</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-25977.52061280558</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-25966.19261280558</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-26003.51381280558</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-25879.88571280558</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-25879.88571280558</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-25877.00971280557</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-23787.11241280557</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-23785.02551280558</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-24603.32461280558</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-24293.60511280558</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-24012.72461280558</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-22920.28731280558</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-22920.28731280558</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-22632.28731280558</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-22632.28731280558</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-22773.94541280558</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-22699.02551280558</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-22893.77791280558</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-22893.77791280558</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-22887.27791280558</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-22750.64161280558</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-22733.85111280558</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-22421.79011280558</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-22787.25921280558</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-22787.25921280558</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-22794.32231280558</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-27038.04051280558</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-28731.38351280558</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-28760.64351280558</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-28760.64351280558</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-29027.44911280558</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-29384.39441280558</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-29384.39441280558</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-29043.95639276915</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-29328.72639276914</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-29542.16919276914</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-30035.78269276914</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-30323.69679276913</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-30323.69679276913</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-30027.83719276913</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-30042.42429276913</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20317,329 +20317,285 @@
         <v>-33113.96319276914</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C605" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D605" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E605" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F605" t="n">
+        <v>212.921</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-33113.96319276914</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C606" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D606" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E606" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F606" t="n">
+        <v>222.3437</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-32891.61949276914</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
         <v>5280</v>
       </c>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
+      <c r="C607" t="n">
+        <v>5285</v>
+      </c>
+      <c r="D607" t="n">
+        <v>5285</v>
+      </c>
+      <c r="E607" t="n">
+        <v>5280</v>
+      </c>
+      <c r="F607" t="n">
+        <v>160.7117</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-32730.90779276914</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>5275</v>
+      </c>
+      <c r="C608" t="n">
+        <v>5280</v>
+      </c>
+      <c r="D608" t="n">
+        <v>5280</v>
+      </c>
+      <c r="E608" t="n">
+        <v>5275</v>
+      </c>
+      <c r="F608" t="n">
+        <v>100</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-32830.90779276914</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C609" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D609" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E609" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F609" t="n">
+        <v>622.0722</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-33452.97999276914</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C610" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D610" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E610" t="n">
+        <v>5230</v>
+      </c>
+      <c r="F610" t="n">
+        <v>38.8522</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-33491.83219276914</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C611" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D611" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E611" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F611" t="n">
+        <v>168.9167</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-33322.91549276914</v>
+      </c>
+      <c r="H611" t="n">
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>5240</v>
+      </c>
+      <c r="J611" t="n">
+        <v>5240</v>
+      </c>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>5240</v>
+      </c>
+      <c r="C612" t="n">
+        <v>5195</v>
+      </c>
+      <c r="D612" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E612" t="n">
+        <v>5195</v>
+      </c>
+      <c r="F612" t="n">
+        <v>1206.1475</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-34529.06299276914</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>5240</v>
+      </c>
+      <c r="K612" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>5255</v>
-      </c>
-      <c r="C605" t="n">
-        <v>5255</v>
-      </c>
-      <c r="D605" t="n">
-        <v>5255</v>
-      </c>
-      <c r="E605" t="n">
-        <v>5255</v>
-      </c>
-      <c r="F605" t="n">
-        <v>212.921</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-33113.96319276914</v>
-      </c>
-      <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>5255</v>
-      </c>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>5260</v>
-      </c>
-      <c r="C606" t="n">
-        <v>5260</v>
-      </c>
-      <c r="D606" t="n">
-        <v>5265</v>
-      </c>
-      <c r="E606" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F606" t="n">
-        <v>222.3437</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-32891.61949276914</v>
-      </c>
-      <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>5255</v>
-      </c>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>5280</v>
-      </c>
-      <c r="C607" t="n">
-        <v>5285</v>
-      </c>
-      <c r="D607" t="n">
-        <v>5285</v>
-      </c>
-      <c r="E607" t="n">
-        <v>5280</v>
-      </c>
-      <c r="F607" t="n">
-        <v>160.7117</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-32730.90779276914</v>
-      </c>
-      <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>5260</v>
-      </c>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>5275</v>
-      </c>
-      <c r="C608" t="n">
-        <v>5280</v>
-      </c>
-      <c r="D608" t="n">
-        <v>5280</v>
-      </c>
-      <c r="E608" t="n">
-        <v>5275</v>
-      </c>
-      <c r="F608" t="n">
-        <v>100</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-32830.90779276914</v>
-      </c>
-      <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>5285</v>
-      </c>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>5255</v>
-      </c>
-      <c r="C609" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D609" t="n">
-        <v>5255</v>
-      </c>
-      <c r="E609" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F609" t="n">
-        <v>622.0722</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-33452.97999276914</v>
-      </c>
-      <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>5280</v>
-      </c>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>5245</v>
-      </c>
-      <c r="C610" t="n">
-        <v>5240</v>
-      </c>
-      <c r="D610" t="n">
-        <v>5245</v>
-      </c>
-      <c r="E610" t="n">
-        <v>5230</v>
-      </c>
-      <c r="F610" t="n">
-        <v>38.8522</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-33491.83219276914</v>
-      </c>
-      <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>5250</v>
-      </c>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>5255</v>
-      </c>
-      <c r="C611" t="n">
-        <v>5250</v>
-      </c>
-      <c r="D611" t="n">
-        <v>5255</v>
-      </c>
-      <c r="E611" t="n">
-        <v>5250</v>
-      </c>
-      <c r="F611" t="n">
-        <v>168.9167</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-33322.91549276914</v>
-      </c>
-      <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>5240</v>
-      </c>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>5240</v>
-      </c>
-      <c r="C612" t="n">
-        <v>5195</v>
-      </c>
-      <c r="D612" t="n">
-        <v>5240</v>
-      </c>
-      <c r="E612" t="n">
-        <v>5195</v>
-      </c>
-      <c r="F612" t="n">
-        <v>1206.1475</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-34529.06299276914</v>
-      </c>
-      <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>5250</v>
-      </c>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20668,12 +20624,12 @@
         <v>-34521.67109276914</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>5195</v>
-      </c>
-      <c r="J613" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>5240</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20712,7 +20668,9 @@
       <c r="I614" t="n">
         <v>5205</v>
       </c>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>5240</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20751,7 +20709,9 @@
       <c r="I615" t="n">
         <v>5220</v>
       </c>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>5240</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20790,7 +20750,9 @@
       <c r="I616" t="n">
         <v>5205</v>
       </c>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>5240</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20829,7 +20791,9 @@
       <c r="I617" t="n">
         <v>5255</v>
       </c>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>5240</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20868,7 +20832,9 @@
       <c r="I618" t="n">
         <v>5280</v>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>5240</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20907,7 +20873,9 @@
       <c r="I619" t="n">
         <v>5270</v>
       </c>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>5240</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20946,7 +20914,9 @@
       <c r="I620" t="n">
         <v>5260</v>
       </c>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>5240</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20980,10 +20950,14 @@
         <v>-34831.78339276914</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>5280</v>
+      </c>
+      <c r="J621" t="n">
+        <v>5240</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21017,10 +20991,14 @@
         <v>-34830.27969276914</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>5280</v>
+      </c>
+      <c r="J622" t="n">
+        <v>5240</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21054,10 +21032,14 @@
         <v>-35135.57879276913</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J623" t="n">
+        <v>5240</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21091,10 +21073,14 @@
         <v>-35423.46639276914</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>5270</v>
+      </c>
+      <c r="J624" t="n">
+        <v>5240</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21128,10 +21114,14 @@
         <v>-34796.87109276914</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>5260</v>
+      </c>
+      <c r="J625" t="n">
+        <v>5240</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21165,10 +21155,14 @@
         <v>-35203.18359276914</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>5275</v>
+      </c>
+      <c r="J626" t="n">
+        <v>5240</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21202,10 +21196,14 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>5270</v>
+      </c>
+      <c r="J627" t="n">
+        <v>5240</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21239,10 +21237,14 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>5265</v>
+      </c>
+      <c r="J628" t="n">
+        <v>5240</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21276,10 +21278,14 @@
         <v>-35602.87999276914</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>5265</v>
+      </c>
+      <c r="J629" t="n">
+        <v>5240</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21313,10 +21319,14 @@
         <v>-35588.89869276914</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>5245</v>
+      </c>
+      <c r="J630" t="n">
+        <v>5240</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21350,10 +21360,14 @@
         <v>-35795.42829276914</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>5255</v>
+      </c>
+      <c r="J631" t="n">
+        <v>5240</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21387,10 +21401,14 @@
         <v>-35790.12089276914</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>5250</v>
+      </c>
+      <c r="J632" t="n">
+        <v>5240</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21424,10 +21442,14 @@
         <v>-35788.71859276914</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>5255</v>
+      </c>
+      <c r="J633" t="n">
+        <v>5240</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21461,10 +21483,14 @@
         <v>-35443.25559276914</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>5260</v>
+      </c>
+      <c r="J634" t="n">
+        <v>5240</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21498,10 +21524,14 @@
         <v>-35577.66769276914</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J635" t="n">
+        <v>5240</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21535,10 +21565,14 @@
         <v>-35542.56529276913</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>5275</v>
+      </c>
+      <c r="J636" t="n">
+        <v>5240</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21572,10 +21606,14 @@
         <v>-35305.38260227055</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>5300</v>
+      </c>
+      <c r="J637" t="n">
+        <v>5240</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21609,10 +21647,14 @@
         <v>-35173.80810227054</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>5315</v>
+      </c>
+      <c r="J638" t="n">
+        <v>5240</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21646,10 +21688,14 @@
         <v>-35061.46810227055</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>5335</v>
+      </c>
+      <c r="J639" t="n">
+        <v>5240</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21683,10 +21729,14 @@
         <v>-35335.78060227055</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>5340</v>
+      </c>
+      <c r="J640" t="n">
+        <v>5240</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21720,10 +21770,14 @@
         <v>-35112.93640227055</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>5330</v>
+      </c>
+      <c r="J641" t="n">
+        <v>5240</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21757,10 +21811,14 @@
         <v>-34951.05730227055</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>5340</v>
+      </c>
+      <c r="J642" t="n">
+        <v>5240</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21794,10 +21852,14 @@
         <v>-35054.06730227055</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>5355</v>
+      </c>
+      <c r="J643" t="n">
+        <v>5240</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21831,10 +21893,14 @@
         <v>-35057.07730227055</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J644" t="n">
+        <v>5240</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21868,10 +21934,14 @@
         <v>-35040.31070227055</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>5340</v>
+      </c>
+      <c r="J645" t="n">
+        <v>5240</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21905,10 +21975,14 @@
         <v>-34441.55570227055</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>5350</v>
+      </c>
+      <c r="J646" t="n">
+        <v>5240</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21942,10 +22016,14 @@
         <v>-34441.99640227055</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>5370</v>
+      </c>
+      <c r="J647" t="n">
+        <v>5240</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21979,10 +22057,14 @@
         <v>-34438.49640227055</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>5360</v>
+      </c>
+      <c r="J648" t="n">
+        <v>5240</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22016,10 +22098,14 @@
         <v>-34425.17640227055</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>5380</v>
+      </c>
+      <c r="J649" t="n">
+        <v>5240</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22053,10 +22139,14 @@
         <v>-34425.17640227055</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>5385</v>
+      </c>
+      <c r="J650" t="n">
+        <v>5240</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22090,10 +22180,14 @@
         <v>-34551.46410227055</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>5385</v>
+      </c>
+      <c r="J651" t="n">
+        <v>5240</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22127,10 +22221,14 @@
         <v>-34666.26820227056</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J652" t="n">
+        <v>5240</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22164,10 +22262,14 @@
         <v>-34735.64630227056</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>5370</v>
+      </c>
+      <c r="J653" t="n">
+        <v>5240</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22201,10 +22303,14 @@
         <v>-34735.64630227056</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>5360</v>
+      </c>
+      <c r="J654" t="n">
+        <v>5240</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22238,10 +22344,14 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>5360</v>
+      </c>
+      <c r="J655" t="n">
+        <v>5240</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22275,10 +22385,14 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>5350</v>
+      </c>
+      <c r="J656" t="n">
+        <v>5240</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22312,10 +22426,14 @@
         <v>-34996.77140227056</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>5350</v>
+      </c>
+      <c r="J657" t="n">
+        <v>5240</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22349,10 +22467,14 @@
         <v>-35062.59310227056</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>5360</v>
+      </c>
+      <c r="J658" t="n">
+        <v>5240</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22386,10 +22508,14 @@
         <v>-35065.59310227056</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>5350</v>
+      </c>
+      <c r="J659" t="n">
+        <v>5240</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22423,10 +22549,14 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>5330</v>
+      </c>
+      <c r="J660" t="n">
+        <v>5240</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22460,10 +22590,14 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>5335</v>
+      </c>
+      <c r="J661" t="n">
+        <v>5240</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22497,10 +22631,14 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>5335</v>
+      </c>
+      <c r="J662" t="n">
+        <v>5240</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22534,10 +22672,14 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>5330</v>
+      </c>
+      <c r="J663" t="n">
+        <v>5240</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22571,10 +22713,14 @@
         <v>-34966.49010227057</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>5330</v>
+      </c>
+      <c r="J664" t="n">
+        <v>5240</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22608,10 +22754,14 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>5365</v>
+      </c>
+      <c r="J665" t="n">
+        <v>5240</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22645,10 +22795,14 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J666" t="n">
+        <v>5240</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22682,10 +22836,14 @@
         <v>-35451.03060227057</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J667" t="n">
+        <v>5240</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22719,10 +22877,14 @@
         <v>-35429.03060227057</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>5365</v>
+      </c>
+      <c r="J668" t="n">
+        <v>5240</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22756,10 +22918,14 @@
         <v>-35470.16060227057</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>5370</v>
+      </c>
+      <c r="J669" t="n">
+        <v>5240</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22793,10 +22959,14 @@
         <v>-35355.44770227057</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>5350</v>
+      </c>
+      <c r="J670" t="n">
+        <v>5240</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22830,10 +23000,14 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>5355</v>
+      </c>
+      <c r="J671" t="n">
+        <v>5240</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22867,10 +23041,14 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>5335</v>
+      </c>
+      <c r="J672" t="n">
+        <v>5240</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22904,10 +23082,14 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>5335</v>
+      </c>
+      <c r="J673" t="n">
+        <v>5240</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22941,10 +23123,14 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>5330</v>
+      </c>
+      <c r="J674" t="n">
+        <v>5240</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22978,10 +23164,14 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>5330</v>
+      </c>
+      <c r="J675" t="n">
+        <v>5240</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23015,10 +23205,14 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>5330</v>
+      </c>
+      <c r="J676" t="n">
+        <v>5240</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
